--- a/data/extracted_data/raw_round2/Navarro_2022_Fig_3.xlsx
+++ b/data/extracted_data/raw_round2/Navarro_2022_Fig_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23FFE8-A1D0-EB40-8013-44E318DCFA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AB23FFE8-A1D0-EB40-8013-44E318DCFA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C99DE55F-5469-B34E-A5A6-C2740B5C7A71}"/>
   <bookViews>
-    <workbookView xWindow="16760" yWindow="6060" windowWidth="28040" windowHeight="17440" xr2:uid="{70BDD5A1-4B72-3849-B58B-AFEF4FA0A191}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{70BDD5A1-4B72-3849-B58B-AFEF4FA0A191}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
-    <t>treatmet</t>
-  </si>
-  <si>
     <t>Quempillen estuary</t>
   </si>
   <si>
-    <t>time</t>
+    <t>Pullinque</t>
   </si>
   <si>
-    <t>toxticity</t>
+    <t>day</t>
   </si>
   <si>
-    <t>Pullinque</t>
+    <t>toxicity</t>
+  </si>
+  <si>
+    <t>treatment</t>
   </si>
 </sst>
 </file>
@@ -107,9 +107,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +147,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -253,7 +253,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,7 +417,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>1.04956268221574</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>9.9708454810495599</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>19.941690962099099</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>29.9125364431486</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>32.011661807580097</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>34.985422740524697</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>40.058309037900798</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>49.854227405247798</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
         <v>60</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>0.87719298245613797</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>10</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>30</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>32.105263157894697</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>40</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>60.175438596491198</v>
